--- a/Figures_Tables/Supp_Table_2.xlsx
+++ b/Figures_Tables/Supp_Table_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">ICD10_groups</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
   </si>
   <si>
     <t xml:space="preserve">Accidents and/or
@@ -547,10 +550,13 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
         <v>1505</v>
@@ -603,10 +609,13 @@
       <c r="R2" t="n">
         <v>506</v>
       </c>
+      <c r="S2" t="n">
+        <v>563</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>43</v>
@@ -659,10 +668,13 @@
       <c r="R3" t="n">
         <v>30</v>
       </c>
+      <c r="S3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
         <v>23</v>
@@ -715,10 +727,13 @@
       <c r="R4" t="n">
         <v>14</v>
       </c>
+      <c r="S4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
         <v>4924</v>
@@ -771,10 +786,13 @@
       <c r="R5" t="n">
         <v>2261</v>
       </c>
+      <c r="S5" t="n">
+        <v>2188</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
         <v>2488</v>
@@ -827,10 +845,13 @@
       <c r="R6" t="n">
         <v>1425</v>
       </c>
+      <c r="S6" t="n">
+        <v>1340</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
         <v>178</v>
@@ -883,10 +904,13 @@
       <c r="R7" t="n">
         <v>120</v>
       </c>
+      <c r="S7" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
         <v>478</v>
@@ -939,10 +963,13 @@
       <c r="R8" t="n">
         <v>273</v>
       </c>
+      <c r="S8" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="n">
         <v>171</v>
@@ -995,10 +1022,13 @@
       <c r="R9" t="n">
         <v>211</v>
       </c>
+      <c r="S9" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
         <v>35</v>
@@ -1051,10 +1081,13 @@
       <c r="R10" t="n">
         <v>25</v>
       </c>
+      <c r="S10" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
         <v>362</v>
@@ -1107,10 +1140,13 @@
       <c r="R11" t="n">
         <v>108</v>
       </c>
+      <c r="S11" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n">
         <v>134</v>
@@ -1163,10 +1199,13 @@
       <c r="R12" t="n">
         <v>52</v>
       </c>
+      <c r="S12" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
         <v>425</v>
@@ -1219,10 +1258,13 @@
       <c r="R13" t="n">
         <v>380</v>
       </c>
+      <c r="S13" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="n">
         <v>61</v>
@@ -1275,10 +1317,13 @@
       <c r="R14" t="n">
         <v>36</v>
       </c>
+      <c r="S14" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="n">
         <v>76</v>
@@ -1331,10 +1376,13 @@
       <c r="R15" t="n">
         <v>18</v>
       </c>
+      <c r="S15" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="n">
         <v>35</v>
@@ -1387,10 +1435,13 @@
       <c r="R16" t="n">
         <v>10</v>
       </c>
+      <c r="S16" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>332</v>
@@ -1443,10 +1494,13 @@
       <c r="R17" t="n">
         <v>89</v>
       </c>
+      <c r="S17" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
         <v>295</v>
@@ -1499,10 +1553,13 @@
       <c r="R18" t="n">
         <v>65</v>
       </c>
+      <c r="S18" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
         <v>74</v>
@@ -1555,10 +1612,13 @@
       <c r="R19" t="n">
         <v>71</v>
       </c>
+      <c r="S19" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="n">
         <v>8</v>
@@ -1611,10 +1671,13 @@
       <c r="R20" t="n">
         <v>9</v>
       </c>
+      <c r="S20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -1666,6 +1729,9 @@
       </c>
       <c r="R21" t="n">
         <v>118</v>
+      </c>
+      <c r="S21" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Figures_Tables/Supp_Table_2.xlsx
+++ b/Figures_Tables/Supp_Table_2.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,129 +14,129 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
-    <t xml:space="preserve">ICD10_groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accidents and/or
+    <t>ICD10_groups</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Accidents and/or
 Lung diseases due
 to external agents
 (J60-J70, V01-X59, Y85,
 Y86)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cerebrovascular disease
+    <t>Cerebrovascular disease
 (I60-I69)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chronic lower
+    <t>Chronic lower
 respiratory diseases
 (J40-J47)</t>
   </si>
   <si>
-    <t xml:space="preserve">Conditions originating
+    <t>Conditions originating
 in the perinatal period
 (P00-P96)</t>
   </si>
   <si>
-    <t xml:space="preserve">Congenital
+    <t>Congenital
 malformations (Q00-Q99)</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseases of the heart
+    <t>Diseases of the heart
 (I00-I09, I11, I13,
 I20-I51)</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseases of the nervous
+    <t>Diseases of the nervous
 system (G00-G99)</t>
   </si>
   <si>
-    <t xml:space="preserve">Homicide/Event of
+    <t>Homicide/Event of
 undetermined intent
 (X85-Y09, Y20-Y34)</t>
   </si>
   <si>
-    <t xml:space="preserve">Infections with a
+    <t>Infections with a
 predominantly sexual
 mode of transmission
 (A50-A64)</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza and pneumonia
+    <t>Influenza and pneumonia
 (J09-J18)</t>
   </si>
   <si>
-    <t xml:space="preserve">Intestinal infectious
+    <t>Intestinal infectious
 diseases (A00-A09)</t>
   </si>
   <si>
-    <t xml:space="preserve">Malignant neoplasms
+    <t>Malignant neoplasms
 (C00-C97)</t>
   </si>
   <si>
-    <t xml:space="preserve">Neoplasms (D00-D48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other acute lower
+    <t>Neoplasms (D00-D48)</t>
+  </si>
+  <si>
+    <t>Other acute lower
 respiratory infections
 (J20-J22)</t>
   </si>
   <si>
-    <t xml:space="preserve">Other and unspecified
+    <t>Other and unspecified
 infectious and
 parasitic diseases and
 their sequelae (A00,
@@ -147,34 +147,34 @@
 B55-B99)</t>
   </si>
   <si>
-    <t xml:space="preserve">Other bacterial
+    <t>Other bacterial
 diseases (A20-A49)</t>
   </si>
   <si>
-    <t xml:space="preserve">Other diseases of the
+    <t>Other diseases of the
 respiratory system
 (J00-J06, J30-J39, J67,
 J70-J98)</t>
   </si>
   <si>
-    <t xml:space="preserve">Suicide (X60-X84)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis (A15-A19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COVID-19 (U07)</t>
+    <t>Suicide (X60-X84)</t>
+  </si>
+  <si>
+    <t>Tuberculosis (A15-A19)</t>
+  </si>
+  <si>
+    <t>COVID-19 (U07)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +185,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -203,297 +203,16 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -559,58 +278,58 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>1505</v>
+        <v>1505.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1485</v>
+        <v>1485.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1477</v>
+        <v>1477.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1344</v>
+        <v>1344.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1238</v>
+        <v>1238.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1302</v>
+        <v>1302.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1297</v>
+        <v>1297.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1255</v>
+        <v>1255.0</v>
       </c>
       <c r="J2" t="n">
-        <v>1163</v>
+        <v>1163.0</v>
       </c>
       <c r="K2" t="n">
-        <v>1119</v>
+        <v>1119.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1066</v>
+        <v>1066.0</v>
       </c>
       <c r="M2" t="n">
-        <v>955</v>
+        <v>955.0</v>
       </c>
       <c r="N2" t="n">
-        <v>904</v>
+        <v>904.0</v>
       </c>
       <c r="O2" t="n">
-        <v>768</v>
+        <v>768.0</v>
       </c>
       <c r="P2" t="n">
-        <v>711</v>
+        <v>711.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>473</v>
+        <v>473.0</v>
       </c>
       <c r="R2" t="n">
-        <v>506</v>
+        <v>506.0</v>
       </c>
       <c r="S2" t="n">
-        <v>563</v>
+        <v>563.0</v>
       </c>
     </row>
     <row r="3">
@@ -618,58 +337,58 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="E3" t="n">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="G3" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="J3" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="K3" t="n">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="L3" t="n">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="M3" t="n">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="N3" t="n">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="O3" t="n">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="P3" t="n">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="S3" t="n">
-        <v>29</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="4">
@@ -677,58 +396,58 @@
         <v>21</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="K4" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="L4" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="M4" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="N4" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="O4" t="n">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="P4" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="R4" t="n">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="S4" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
@@ -736,58 +455,58 @@
         <v>22</v>
       </c>
       <c r="B5" t="n">
-        <v>4924</v>
+        <v>4924.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4402</v>
+        <v>4402.0</v>
       </c>
       <c r="D5" t="n">
-        <v>4557</v>
+        <v>4557.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4724</v>
+        <v>4724.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4446</v>
+        <v>4446.0</v>
       </c>
       <c r="G5" t="n">
-        <v>4487</v>
+        <v>4487.0</v>
       </c>
       <c r="H5" t="n">
-        <v>4329</v>
+        <v>4329.0</v>
       </c>
       <c r="I5" t="n">
-        <v>4068</v>
+        <v>4068.0</v>
       </c>
       <c r="J5" t="n">
-        <v>4160</v>
+        <v>4160.0</v>
       </c>
       <c r="K5" t="n">
-        <v>4139</v>
+        <v>4139.0</v>
       </c>
       <c r="L5" t="n">
-        <v>3728</v>
+        <v>3728.0</v>
       </c>
       <c r="M5" t="n">
-        <v>3494</v>
+        <v>3494.0</v>
       </c>
       <c r="N5" t="n">
-        <v>3388</v>
+        <v>3388.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3038</v>
+        <v>3038.0</v>
       </c>
       <c r="P5" t="n">
-        <v>2883</v>
+        <v>2883.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2439</v>
+        <v>2439.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2261</v>
+        <v>2261.0</v>
       </c>
       <c r="S5" t="n">
-        <v>2188</v>
+        <v>2188.0</v>
       </c>
     </row>
     <row r="6">
@@ -795,58 +514,58 @@
         <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>2488</v>
+        <v>2488.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2537</v>
+        <v>2537.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2391</v>
+        <v>2391.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2612</v>
+        <v>2612.0</v>
       </c>
       <c r="F6" t="n">
-        <v>2533</v>
+        <v>2533.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2541</v>
+        <v>2541.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2499</v>
+        <v>2499.0</v>
       </c>
       <c r="I6" t="n">
-        <v>2458</v>
+        <v>2458.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2434</v>
+        <v>2434.0</v>
       </c>
       <c r="K6" t="n">
-        <v>2594</v>
+        <v>2594.0</v>
       </c>
       <c r="L6" t="n">
-        <v>2358</v>
+        <v>2358.0</v>
       </c>
       <c r="M6" t="n">
-        <v>2200</v>
+        <v>2200.0</v>
       </c>
       <c r="N6" t="n">
-        <v>2122</v>
+        <v>2122.0</v>
       </c>
       <c r="O6" t="n">
-        <v>1946</v>
+        <v>1946.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1865</v>
+        <v>1865.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1486</v>
+        <v>1486.0</v>
       </c>
       <c r="R6" t="n">
-        <v>1425</v>
+        <v>1425.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1340</v>
+        <v>1340.0</v>
       </c>
     </row>
     <row r="7">
@@ -854,58 +573,58 @@
         <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>178</v>
+        <v>178.0</v>
       </c>
       <c r="C7" t="n">
-        <v>181</v>
+        <v>181.0</v>
       </c>
       <c r="D7" t="n">
-        <v>186</v>
+        <v>186.0</v>
       </c>
       <c r="E7" t="n">
-        <v>197</v>
+        <v>197.0</v>
       </c>
       <c r="F7" t="n">
-        <v>185</v>
+        <v>185.0</v>
       </c>
       <c r="G7" t="n">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="H7" t="n">
-        <v>177</v>
+        <v>177.0</v>
       </c>
       <c r="I7" t="n">
-        <v>183</v>
+        <v>183.0</v>
       </c>
       <c r="J7" t="n">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="K7" t="n">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="L7" t="n">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="M7" t="n">
-        <v>138</v>
+        <v>138.0</v>
       </c>
       <c r="N7" t="n">
-        <v>134</v>
+        <v>134.0</v>
       </c>
       <c r="O7" t="n">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="P7" t="n">
-        <v>124</v>
+        <v>124.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="S7" t="n">
-        <v>144</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="8">
@@ -913,58 +632,58 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>478</v>
+        <v>478.0</v>
       </c>
       <c r="C8" t="n">
-        <v>484</v>
+        <v>484.0</v>
       </c>
       <c r="D8" t="n">
-        <v>477</v>
+        <v>477.0</v>
       </c>
       <c r="E8" t="n">
-        <v>495</v>
+        <v>495.0</v>
       </c>
       <c r="F8" t="n">
-        <v>477</v>
+        <v>477.0</v>
       </c>
       <c r="G8" t="n">
-        <v>515</v>
+        <v>515.0</v>
       </c>
       <c r="H8" t="n">
-        <v>457</v>
+        <v>457.0</v>
       </c>
       <c r="I8" t="n">
-        <v>417</v>
+        <v>417.0</v>
       </c>
       <c r="J8" t="n">
-        <v>401</v>
+        <v>401.0</v>
       </c>
       <c r="K8" t="n">
-        <v>391</v>
+        <v>391.0</v>
       </c>
       <c r="L8" t="n">
-        <v>436</v>
+        <v>436.0</v>
       </c>
       <c r="M8" t="n">
-        <v>463</v>
+        <v>463.0</v>
       </c>
       <c r="N8" t="n">
-        <v>361</v>
+        <v>361.0</v>
       </c>
       <c r="O8" t="n">
-        <v>321</v>
+        <v>321.0</v>
       </c>
       <c r="P8" t="n">
-        <v>380</v>
+        <v>380.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>238</v>
+        <v>238.0</v>
       </c>
       <c r="R8" t="n">
-        <v>273</v>
+        <v>273.0</v>
       </c>
       <c r="S8" t="n">
-        <v>384</v>
+        <v>384.0</v>
       </c>
     </row>
     <row r="9">
@@ -972,58 +691,58 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="C9" t="n">
-        <v>192</v>
+        <v>192.0</v>
       </c>
       <c r="D9" t="n">
-        <v>191</v>
+        <v>191.0</v>
       </c>
       <c r="E9" t="n">
-        <v>181</v>
+        <v>181.0</v>
       </c>
       <c r="F9" t="n">
-        <v>205</v>
+        <v>205.0</v>
       </c>
       <c r="G9" t="n">
-        <v>203</v>
+        <v>203.0</v>
       </c>
       <c r="H9" t="n">
-        <v>220</v>
+        <v>220.0</v>
       </c>
       <c r="I9" t="n">
-        <v>196</v>
+        <v>196.0</v>
       </c>
       <c r="J9" t="n">
-        <v>193</v>
+        <v>193.0</v>
       </c>
       <c r="K9" t="n">
-        <v>204</v>
+        <v>204.0</v>
       </c>
       <c r="L9" t="n">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="M9" t="n">
-        <v>213</v>
+        <v>213.0</v>
       </c>
       <c r="N9" t="n">
-        <v>237</v>
+        <v>237.0</v>
       </c>
       <c r="O9" t="n">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="P9" t="n">
-        <v>196</v>
+        <v>196.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>163</v>
+        <v>163.0</v>
       </c>
       <c r="R9" t="n">
-        <v>211</v>
+        <v>211.0</v>
       </c>
       <c r="S9" t="n">
-        <v>230</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="10">
@@ -1031,58 +750,58 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="K10" t="n">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="L10" t="n">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="M10" t="n">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="N10" t="n">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="O10" t="n">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="P10" t="n">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="R10" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="S10" t="n">
-        <v>19</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
@@ -1090,58 +809,58 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>362</v>
+        <v>362.0</v>
       </c>
       <c r="C11" t="n">
-        <v>433</v>
+        <v>433.0</v>
       </c>
       <c r="D11" t="n">
-        <v>452</v>
+        <v>452.0</v>
       </c>
       <c r="E11" t="n">
-        <v>391</v>
+        <v>391.0</v>
       </c>
       <c r="F11" t="n">
-        <v>566</v>
+        <v>566.0</v>
       </c>
       <c r="G11" t="n">
-        <v>347</v>
+        <v>347.0</v>
       </c>
       <c r="H11" t="n">
-        <v>406</v>
+        <v>406.0</v>
       </c>
       <c r="I11" t="n">
-        <v>288</v>
+        <v>288.0</v>
       </c>
       <c r="J11" t="n">
-        <v>356</v>
+        <v>356.0</v>
       </c>
       <c r="K11" t="n">
-        <v>319</v>
+        <v>319.0</v>
       </c>
       <c r="L11" t="n">
-        <v>312</v>
+        <v>312.0</v>
       </c>
       <c r="M11" t="n">
-        <v>349</v>
+        <v>349.0</v>
       </c>
       <c r="N11" t="n">
-        <v>249</v>
+        <v>249.0</v>
       </c>
       <c r="O11" t="n">
-        <v>242</v>
+        <v>242.0</v>
       </c>
       <c r="P11" t="n">
-        <v>285</v>
+        <v>285.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="R11" t="n">
-        <v>108</v>
+        <v>108.0</v>
       </c>
       <c r="S11" t="n">
-        <v>255</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="12">
@@ -1149,58 +868,58 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>134</v>
+        <v>134.0</v>
       </c>
       <c r="C12" t="n">
-        <v>148</v>
+        <v>148.0</v>
       </c>
       <c r="D12" t="n">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="E12" t="n">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="F12" t="n">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="G12" t="n">
-        <v>144</v>
+        <v>144.0</v>
       </c>
       <c r="H12" t="n">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="I12" t="n">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="J12" t="n">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="K12" t="n">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="L12" t="n">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="M12" t="n">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="N12" t="n">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="O12" t="n">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="P12" t="n">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="R12" t="n">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="S12" t="n">
-        <v>58</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="13">
@@ -1208,58 +927,58 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>425</v>
+        <v>425.0</v>
       </c>
       <c r="C13" t="n">
-        <v>391</v>
+        <v>391.0</v>
       </c>
       <c r="D13" t="n">
-        <v>395</v>
+        <v>395.0</v>
       </c>
       <c r="E13" t="n">
-        <v>369</v>
+        <v>369.0</v>
       </c>
       <c r="F13" t="n">
-        <v>388</v>
+        <v>388.0</v>
       </c>
       <c r="G13" t="n">
-        <v>365</v>
+        <v>365.0</v>
       </c>
       <c r="H13" t="n">
-        <v>380</v>
+        <v>380.0</v>
       </c>
       <c r="I13" t="n">
-        <v>358</v>
+        <v>358.0</v>
       </c>
       <c r="J13" t="n">
-        <v>389</v>
+        <v>389.0</v>
       </c>
       <c r="K13" t="n">
-        <v>385</v>
+        <v>385.0</v>
       </c>
       <c r="L13" t="n">
-        <v>345</v>
+        <v>345.0</v>
       </c>
       <c r="M13" t="n">
-        <v>390</v>
+        <v>390.0</v>
       </c>
       <c r="N13" t="n">
-        <v>410</v>
+        <v>410.0</v>
       </c>
       <c r="O13" t="n">
-        <v>353</v>
+        <v>353.0</v>
       </c>
       <c r="P13" t="n">
-        <v>353</v>
+        <v>353.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>331</v>
+        <v>331.0</v>
       </c>
       <c r="R13" t="n">
-        <v>380</v>
+        <v>380.0</v>
       </c>
       <c r="S13" t="n">
-        <v>376</v>
+        <v>376.0</v>
       </c>
     </row>
     <row r="14">
@@ -1267,58 +986,58 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="C14" t="n">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="E14" t="n">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="F14" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="G14" t="n">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="H14" t="n">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="I14" t="n">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="J14" t="n">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="K14" t="n">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="L14" t="n">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="M14" t="n">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="N14" t="n">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="O14" t="n">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="P14" t="n">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="R14" t="n">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="S14" t="n">
-        <v>42</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
@@ -1326,58 +1045,58 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="C15" t="n">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="D15" t="n">
-        <v>167</v>
+        <v>167.0</v>
       </c>
       <c r="E15" t="n">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="F15" t="n">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="G15" t="n">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="H15" t="n">
-        <v>112</v>
+        <v>112.0</v>
       </c>
       <c r="I15" t="n">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="J15" t="n">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="K15" t="n">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="L15" t="n">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="M15" t="n">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="N15" t="n">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="O15" t="n">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="P15" t="n">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="R15" t="n">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="S15" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="16">
@@ -1385,58 +1104,58 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="F16" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="G16" t="n">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="J16" t="n">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="K16" t="n">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="L16" t="n">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="M16" t="n">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="N16" t="n">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="O16" t="n">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="P16" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="S16" t="n">
-        <v>19</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
@@ -1444,58 +1163,58 @@
         <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>332</v>
+        <v>332.0</v>
       </c>
       <c r="C17" t="n">
-        <v>333</v>
+        <v>333.0</v>
       </c>
       <c r="D17" t="n">
-        <v>398</v>
+        <v>398.0</v>
       </c>
       <c r="E17" t="n">
-        <v>373</v>
+        <v>373.0</v>
       </c>
       <c r="F17" t="n">
-        <v>316</v>
+        <v>316.0</v>
       </c>
       <c r="G17" t="n">
-        <v>272</v>
+        <v>272.0</v>
       </c>
       <c r="H17" t="n">
-        <v>359</v>
+        <v>359.0</v>
       </c>
       <c r="I17" t="n">
-        <v>269</v>
+        <v>269.0</v>
       </c>
       <c r="J17" t="n">
-        <v>265</v>
+        <v>265.0</v>
       </c>
       <c r="K17" t="n">
-        <v>217</v>
+        <v>217.0</v>
       </c>
       <c r="L17" t="n">
-        <v>196</v>
+        <v>196.0</v>
       </c>
       <c r="M17" t="n">
-        <v>218</v>
+        <v>218.0</v>
       </c>
       <c r="N17" t="n">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="O17" t="n">
-        <v>170</v>
+        <v>170.0</v>
       </c>
       <c r="P17" t="n">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="R17" t="n">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="S17" t="n">
-        <v>136</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="18">
@@ -1503,58 +1222,58 @@
         <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>295</v>
+        <v>295.0</v>
       </c>
       <c r="C18" t="n">
-        <v>301</v>
+        <v>301.0</v>
       </c>
       <c r="D18" t="n">
-        <v>344</v>
+        <v>344.0</v>
       </c>
       <c r="E18" t="n">
-        <v>245</v>
+        <v>245.0</v>
       </c>
       <c r="F18" t="n">
-        <v>283</v>
+        <v>283.0</v>
       </c>
       <c r="G18" t="n">
-        <v>246</v>
+        <v>246.0</v>
       </c>
       <c r="H18" t="n">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="I18" t="n">
-        <v>239</v>
+        <v>239.0</v>
       </c>
       <c r="J18" t="n">
-        <v>172</v>
+        <v>172.0</v>
       </c>
       <c r="K18" t="n">
-        <v>191</v>
+        <v>191.0</v>
       </c>
       <c r="L18" t="n">
-        <v>135</v>
+        <v>135.0</v>
       </c>
       <c r="M18" t="n">
-        <v>163</v>
+        <v>163.0</v>
       </c>
       <c r="N18" t="n">
-        <v>149</v>
+        <v>149.0</v>
       </c>
       <c r="O18" t="n">
-        <v>173</v>
+        <v>173.0</v>
       </c>
       <c r="P18" t="n">
-        <v>143</v>
+        <v>143.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>81</v>
+        <v>81.0</v>
       </c>
       <c r="R18" t="n">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="S18" t="n">
-        <v>95</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="19">
@@ -1562,58 +1281,58 @@
         <v>36</v>
       </c>
       <c r="B19" t="n">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="C19" t="n">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>81.0</v>
       </c>
       <c r="E19" t="n">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="F19" t="n">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="G19" t="n">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="H19" t="n">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="I19" t="n">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="J19" t="n">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="K19" t="n">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="L19" t="n">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="M19" t="n">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="N19" t="n">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="O19" t="n">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="P19" t="n">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="R19" t="n">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="S19" t="n">
-        <v>60</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="20">
@@ -1621,58 +1340,58 @@
         <v>37</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="J20" t="n">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="P20" t="n">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="R20" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="21">
@@ -1680,62 +1399,61 @@
         <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="R21" t="n">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="S21" t="n">
-        <v>120</v>
+        <v>120.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>